--- a/Corona Luft Aufgaben/Luft Corona 2.xlsx
+++ b/Corona Luft Aufgaben/Luft Corona 2.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Studium\E-Maker\Corona Luft Aufgaben\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Desktop\Studium\E-Maker\Corona Luft Aufgaben\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E618F09C-A9F3-499B-99D7-16E5A0FE41D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3A0FC9-4007-46A9-88B7-EBDCB935D90E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AB6583A4-1F25-495A-A35F-55D88D7E73EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB6583A4-1F25-495A-A35F-55D88D7E73EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -101,13 +101,13 @@
     <t>c [Vol.%] für 20 Pers.</t>
   </si>
   <si>
-    <t>Grenze Pett</t>
+    <t>c [Vol.%] für 1 Pers.</t>
   </si>
   <si>
-    <t>Grenze DIN</t>
+    <t>Grenze Pettkofer</t>
   </si>
   <si>
-    <t>c [Vol.%] für 1 Pers.</t>
+    <t>Grenze DIN 1946</t>
   </si>
 </sst>
 </file>
@@ -115,7 +115,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -148,7 +148,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -276,7 +276,7 @@
             <c:numRef>
               <c:f>Tabelle1!$G$3:$G$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -385,7 +385,7 @@
             <c:numRef>
               <c:f>Tabelle1!$G$3:$G$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -494,7 +494,7 @@
             <c:numRef>
               <c:f>Tabelle1!$G$3:$G$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -591,7 +591,7 @@
             <c:numRef>
               <c:f>Tabelle1!$G$3:$G$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -688,7 +688,7 @@
             <c:numRef>
               <c:f>Tabelle1!$G$3:$G$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -795,7 +795,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1844,15 +1844,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C69398-D362-4CAF-B81E-D5BD1F0CBEA4}">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
@@ -1869,7 +1872,7 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -1878,10 +1881,10 @@
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -1895,7 +1898,7 @@
       <c r="E3">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>0</v>
       </c>
       <c r="H3" s="1">
@@ -1925,15 +1928,15 @@
       <c r="E4">
         <v>145</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>0.25</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H23" si="0">(5*$E$5)/(10*$E$2*$E$4)*(1-EXP(-$E$2*G4))+$B$6</f>
+        <f t="shared" ref="H4:H11" si="0">(5*$E$5)/(10*$E$2*$E$4)*(1-EXP(-$E$2*G4))+$B$6</f>
         <v>5.8955142498475333E-2</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I23" si="1">(10*$E$5)/(10*$E$2*$E$4)*(1-EXP(-$E$2*G4))+$B$6</f>
+        <f t="shared" ref="I4:I11" si="1">(10*$E$5)/(10*$E$2*$E$4)*(1-EXP(-$E$2*G4))+$B$6</f>
         <v>7.7910284996950657E-2</v>
       </c>
       <c r="J4" s="1">
@@ -1944,7 +1947,7 @@
         <v>0.1</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L23" si="3">0.15</f>
+        <f t="shared" ref="L4:L11" si="3">0.15</f>
         <v>0.15</v>
       </c>
     </row>
@@ -1958,7 +1961,7 @@
       <c r="E5">
         <v>25</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <f>G4+0.25</f>
         <v>0.5</v>
       </c>
@@ -1987,8 +1990,8 @@
         <f>0.04</f>
         <v>0.04</v>
       </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G19" si="4">G5+0.25</f>
+      <c r="G6" s="2">
+        <f t="shared" ref="G6:G11" si="4">G5+0.25</f>
         <v>0.75</v>
       </c>
       <c r="H6" s="1">
@@ -2019,7 +2022,7 @@
         <f>(E3*E5)/(10*E2*E4)*(1-EXP(-E2*B9))+B6</f>
         <v>0.19716713844547781</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -2054,7 +2057,7 @@
         <f>ABS(B3-E7)</f>
         <v>4.7167138445477819E-2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
@@ -2082,7 +2085,7 @@
       <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
@@ -2107,7 +2110,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G10">
+      <c r="G10" s="2">
         <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
@@ -2132,7 +2135,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G11">
+      <c r="G11" s="2">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>

--- a/Corona Luft Aufgaben/Luft Corona 2.xlsx
+++ b/Corona Luft Aufgaben/Luft Corona 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Desktop\Studium\E-Maker\Corona Luft Aufgaben\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3A0FC9-4007-46A9-88B7-EBDCB935D90E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAA806A-0A39-4C19-B674-FEDE443576C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB6583A4-1F25-495A-A35F-55D88D7E73EB}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{AB6583A4-1F25-495A-A35F-55D88D7E73EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1848,7 +1848,7 @@
   <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
